--- a/Brain_test/write.xlsx
+++ b/Brain_test/write.xlsx
@@ -15,7 +15,80 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+  <si>
+    <t>学生id</t>
+  </si>
+  <si>
+    <t>思考题系统得分</t>
+  </si>
+  <si>
+    <t>思考题教师评分</t>
+  </si>
+  <si>
+    <t>头脑风暴</t>
+  </si>
+  <si>
+    <t>诊断总结</t>
+  </si>
+  <si>
+    <t>学生之间相互投票</t>
+  </si>
+  <si>
+    <t>系统评分</t>
+  </si>
+  <si>
+    <t>小组互评</t>
+  </si>
+  <si>
+    <t>教师评分</t>
+  </si>
+  <si>
+    <t>组内互评</t>
+  </si>
+  <si>
+    <t>头脑风暴=头脑风暴+诊断总结</t>
+  </si>
+  <si>
+    <t>个人表现=学生互评+系统评分+组内互评</t>
+  </si>
+  <si>
+    <t>小组表现=小组互评+教师评分</t>
+  </si>
+  <si>
+    <t>总分</t>
+  </si>
+  <si>
+    <t>d40de523-704b-427a-a744-ec9ef3eb780b</t>
+  </si>
+  <si>
+    <t>41551642-d31f-4cf1-ae8e-c19314598427</t>
+  </si>
+  <si>
+    <t>4b14672f-394b-4d23-be23-c3c77d27dea8</t>
+  </si>
+  <si>
+    <t>90146453-7aa2-4a78-9234-99024d6d7c7b</t>
+  </si>
+  <si>
+    <t>cede95b9-f206-40d8-868b-f11202d64608</t>
+  </si>
+  <si>
+    <t>002a614d-05ab-4624-8923-c16e75071c38</t>
+  </si>
+  <si>
+    <t>dc7626a3-0470-48a4-bba1-1d14ecfc3165</t>
+  </si>
+  <si>
+    <t>eca50c39-6ab4-4b8c-81e6-4b47f5dc7145</t>
+  </si>
+  <si>
+    <t>629f6479-4ec2-4cb2-a836-16f10c9f8fdc</t>
+  </si>
+  <si>
+    <t>900774ce-c65c-43ef-bfed-979f0af0e8ee</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,14 +422,499 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>9</v>
+      </c>
+      <c r="N2" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>30</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>60.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8.200000000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>27</v>
+      </c>
+      <c r="L5" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="M5" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>58.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>24</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>24</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10</v>
+      </c>
+      <c r="N7" t="n">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>12</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>12</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>22.75</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Brain_test/write.xlsx
+++ b/Brain_test/write.xlsx
@@ -482,40 +482,40 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>33</v>
+      </c>
+      <c r="L2" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8.5</v>
-      </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>1.6</v>
       </c>
       <c r="N2" t="n">
-        <v>30.5</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -541,25 +541,25 @@
         <v>4.5</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N3" t="n">
-        <v>10.5</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -567,43 +567,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L4" t="n">
-        <v>9.75</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>9.5</v>
+        <v>1.6</v>
       </c>
       <c r="N4" t="n">
-        <v>60.25</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -617,37 +617,37 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>12.75</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>8.200000000000001</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>27</v>
+        <v>12.75</v>
       </c>
       <c r="L5" t="n">
-        <v>9.25</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>17.2</v>
+        <v>10</v>
       </c>
       <c r="N5" t="n">
-        <v>58.45</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -658,7 +658,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -679,19 +679,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>16.75</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -699,22 +699,22 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H7" t="n">
         <v>10</v>
@@ -723,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L7" t="n">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="M7" t="n">
         <v>10</v>
       </c>
       <c r="N7" t="n">
-        <v>48.5</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>21.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -787,25 +787,25 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
-        <v>7.75</v>
+        <v>12.5</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>7.75</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -837,37 +837,37 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
-        <v>3.25</v>
+        <v>6.75</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N10" t="n">
-        <v>20.25</v>
+        <v>36.75</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -875,40 +875,40 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>12.75</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>12.75</v>
       </c>
       <c r="L11" t="n">
-        <v>9.75</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N11" t="n">
         <v>22.75</v>

--- a/Brain_test/write.xlsx
+++ b/Brain_test/write.xlsx
@@ -488,34 +488,34 @@
         <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.6</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="M2" t="n">
-        <v>1.6</v>
+        <v>14.6</v>
       </c>
       <c r="N2" t="n">
-        <v>47.6</v>
+        <v>43.85</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -535,31 +535,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L3" t="n">
         <v>10</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>15</v>
-      </c>
-      <c r="L3" t="n">
-        <v>7.5</v>
-      </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="N3" t="n">
-        <v>37.5</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -567,43 +567,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.6</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15</v>
+      </c>
+      <c r="L4" t="n">
         <v>3</v>
       </c>
-      <c r="K4" t="n">
-        <v>33</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.5</v>
-      </c>
       <c r="M4" t="n">
-        <v>1.6</v>
+        <v>14.6</v>
       </c>
       <c r="N4" t="n">
-        <v>41.1</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -611,13 +611,13 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>12.75</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
         <v>10</v>
@@ -635,19 +635,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>12.75</v>
+        <v>12</v>
       </c>
       <c r="L5" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>10</v>
       </c>
       <c r="N5" t="n">
-        <v>31.25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -655,13 +655,13 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>12.75</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>12.75</v>
       </c>
       <c r="L6" t="n">
         <v>6.5</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>13.5</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -708,34 +708,34 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="N7" t="n">
-        <v>30.5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -743,13 +743,13 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>12.75</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>12.75</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -790,40 +790,40 @@
         <v>5</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15</v>
+      </c>
+      <c r="E9" t="n">
+        <v>24</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>39</v>
+      </c>
+      <c r="L9" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="n">
-        <v>15</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>15</v>
-      </c>
-      <c r="L9" t="n">
-        <v>12.5</v>
-      </c>
       <c r="M9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="N9" t="n">
-        <v>52.5</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -831,7 +831,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -846,28 +846,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>15</v>
       </c>
       <c r="L10" t="n">
-        <v>6.75</v>
+        <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="N10" t="n">
-        <v>36.75</v>
+        <v>21.65</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -875,13 +875,13 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>12.75</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="n">
         <v>10</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>12.75</v>
+        <v>12</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="M11" t="n">
         <v>10</v>
       </c>
       <c r="N11" t="n">
-        <v>22.75</v>
+        <v>33.5</v>
       </c>
     </row>
   </sheetData>

--- a/Brain_test/write.xlsx
+++ b/Brain_test/write.xlsx
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>15</v>
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>4.25</v>
       </c>
       <c r="H2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>5.100000000000001</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>9.25</v>
+        <v>4.25</v>
       </c>
       <c r="M2" t="n">
-        <v>14.6</v>
+        <v>12</v>
       </c>
       <c r="N2" t="n">
-        <v>43.85</v>
+        <v>38.25</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -523,43 +523,43 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>32.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -570,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
         <v>15</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>5.100000000000001</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -597,13 +597,13 @@
         <v>15</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>14.6</v>
+        <v>12</v>
       </c>
       <c r="N4" t="n">
-        <v>41.6</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -617,37 +617,37 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>12.75</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>12</v>
+        <v>30.75</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N5" t="n">
-        <v>28</v>
+        <v>52.75</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -655,25 +655,25 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>12.75</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -682,16 +682,16 @@
         <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>12.75</v>
+        <v>15</v>
       </c>
       <c r="L6" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N6" t="n">
-        <v>19.25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -708,34 +708,34 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="L7" t="n">
-        <v>3.5</v>
+        <v>13.25</v>
       </c>
       <c r="M7" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>52</v>
+        <v>28.25</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>12.75</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -758,28 +758,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>12.75</v>
+        <v>15</v>
       </c>
       <c r="L8" t="n">
-        <v>8</v>
+        <v>7.25</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N8" t="n">
-        <v>20.75</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -787,7 +787,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -796,34 +796,34 @@
         <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
-        <v>10</v>
+        <v>7.75</v>
       </c>
       <c r="M9" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>63.5</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -846,28 +846,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>21.65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -875,25 +875,25 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>12.75</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>12</v>
+        <v>30.75</v>
       </c>
       <c r="L11" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N11" t="n">
-        <v>33.5</v>
+        <v>40.75</v>
       </c>
     </row>
   </sheetData>

--- a/Brain_test/write.xlsx
+++ b/Brain_test/write.xlsx
@@ -59,34 +59,34 @@
     <t>总分</t>
   </si>
   <si>
-    <t>d40de523-704b-427a-a744-ec9ef3eb780b</t>
-  </si>
-  <si>
-    <t>41551642-d31f-4cf1-ae8e-c19314598427</t>
-  </si>
-  <si>
-    <t>4b14672f-394b-4d23-be23-c3c77d27dea8</t>
-  </si>
-  <si>
-    <t>90146453-7aa2-4a78-9234-99024d6d7c7b</t>
-  </si>
-  <si>
-    <t>cede95b9-f206-40d8-868b-f11202d64608</t>
-  </si>
-  <si>
-    <t>002a614d-05ab-4624-8923-c16e75071c38</t>
-  </si>
-  <si>
-    <t>dc7626a3-0470-48a4-bba1-1d14ecfc3165</t>
-  </si>
-  <si>
-    <t>eca50c39-6ab4-4b8c-81e6-4b47f5dc7145</t>
-  </si>
-  <si>
-    <t>629f6479-4ec2-4cb2-a836-16f10c9f8fdc</t>
-  </si>
-  <si>
-    <t>900774ce-c65c-43ef-bfed-979f0af0e8ee</t>
+    <t>db6ed13c-7673-4ab7-b270-05f40534a79f</t>
+  </si>
+  <si>
+    <t>2e07b164-b40e-4279-8a02-bd1eec6d925a</t>
+  </si>
+  <si>
+    <t>a1d909d4-085d-46aa-99b3-0507f5239171</t>
+  </si>
+  <si>
+    <t>a5dcabda-2347-4d32-86ae-b5ed4f3b3e8c</t>
+  </si>
+  <si>
+    <t>3c75a457-d341-4522-aad1-edb7571a8919</t>
+  </si>
+  <si>
+    <t>51c395c8-cf0e-40c9-9d29-b62764e88311</t>
+  </si>
+  <si>
+    <t>c2d586da-6094-43ad-8ec4-f77b4ac7b658</t>
+  </si>
+  <si>
+    <t>271d0202-6e65-44f2-a3df-3b9328a31d1e</t>
+  </si>
+  <si>
+    <t>91cd38de-6841-4dcb-8530-928613e8ed9b</t>
+  </si>
+  <si>
+    <t>088f8ee7-c843-4ae0-8616-7836963342c6</t>
   </si>
 </sst>
 </file>
@@ -482,40 +482,40 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="L2" t="n">
-        <v>4.25</v>
+        <v>11</v>
       </c>
       <c r="M2" t="n">
-        <v>12</v>
+        <v>13.1</v>
       </c>
       <c r="N2" t="n">
-        <v>38.25</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -529,37 +529,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -567,43 +567,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>9.200000000000001</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>12</v>
+        <v>18.7</v>
       </c>
       <c r="N4" t="n">
-        <v>46.5</v>
+        <v>23.45</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -617,37 +617,37 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>12.75</v>
+        <v>14.25</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>30.75</v>
+        <v>14.25</v>
       </c>
       <c r="L5" t="n">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>52.75</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -658,40 +658,40 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>14.25</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>15</v>
+        <v>14.25</v>
       </c>
       <c r="L6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>50</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -699,7 +699,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -708,34 +708,34 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="L7" t="n">
-        <v>13.25</v>
+        <v>5.25</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="N7" t="n">
-        <v>28.25</v>
+        <v>50.35</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -758,28 +758,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>9.200000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>7.25</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>10</v>
+        <v>18.7</v>
       </c>
       <c r="N8" t="n">
-        <v>32.25</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -787,13 +787,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -802,28 +802,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>7.75</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>22.75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -837,37 +837,37 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -881,37 +881,37 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>12.75</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>9</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>30.75</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
       <c r="M11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N11" t="n">
-        <v>40.75</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Brain_test/write.xlsx
+++ b/Brain_test/write.xlsx
@@ -59,34 +59,34 @@
     <t>总分</t>
   </si>
   <si>
-    <t>db6ed13c-7673-4ab7-b270-05f40534a79f</t>
-  </si>
-  <si>
-    <t>2e07b164-b40e-4279-8a02-bd1eec6d925a</t>
-  </si>
-  <si>
-    <t>a1d909d4-085d-46aa-99b3-0507f5239171</t>
-  </si>
-  <si>
-    <t>a5dcabda-2347-4d32-86ae-b5ed4f3b3e8c</t>
-  </si>
-  <si>
-    <t>3c75a457-d341-4522-aad1-edb7571a8919</t>
-  </si>
-  <si>
-    <t>51c395c8-cf0e-40c9-9d29-b62764e88311</t>
-  </si>
-  <si>
-    <t>c2d586da-6094-43ad-8ec4-f77b4ac7b658</t>
-  </si>
-  <si>
-    <t>271d0202-6e65-44f2-a3df-3b9328a31d1e</t>
-  </si>
-  <si>
-    <t>91cd38de-6841-4dcb-8530-928613e8ed9b</t>
-  </si>
-  <si>
-    <t>088f8ee7-c843-4ae0-8616-7836963342c6</t>
+    <t>95ac399f-11ce-4e53-96d6-a94c8115be9f</t>
+  </si>
+  <si>
+    <t>9aaa30a5-f267-4297-bac1-bdc1307d7f0f</t>
+  </si>
+  <si>
+    <t>59f019b3-bfb1-493f-a33b-28832781f6c1</t>
+  </si>
+  <si>
+    <t>e2fc231a-e05b-42cd-926e-4ccc51b802ad</t>
+  </si>
+  <si>
+    <t>2b1dcfb8-30ad-4c7f-8479-a778135bbd35</t>
+  </si>
+  <si>
+    <t>a7385d7e-a6cd-406c-895a-738967d29ac2</t>
+  </si>
+  <si>
+    <t>e838eb8c-3693-421f-b4df-78e0b73a00cf</t>
+  </si>
+  <si>
+    <t>63f6c285-bf1d-46d6-baae-6a82ab651864</t>
+  </si>
+  <si>
+    <t>61c1aa7e-a4b6-4637-8fa2-282f661d6c73</t>
+  </si>
+  <si>
+    <t>5a0f56c0-c24f-4fb0-9df0-553dc026ab18</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="L2" t="n">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>13.1</v>
+        <v>10</v>
       </c>
       <c r="N2" t="n">
-        <v>56.1</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -529,37 +529,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="H3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="L3" t="n">
-        <v>12.5</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="N3" t="n">
-        <v>36.5</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -573,37 +573,37 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="H4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
-        <v>9.200000000000001</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>7.75</v>
       </c>
       <c r="M4" t="n">
-        <v>18.7</v>
+        <v>9</v>
       </c>
       <c r="N4" t="n">
-        <v>23.45</v>
+        <v>30.25</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -617,19 +617,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>14.25</v>
+        <v>13.5</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -638,16 +638,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>14.25</v>
+        <v>13.5</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>7.75</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N5" t="n">
-        <v>18.75</v>
+        <v>30.25</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -655,13 +655,13 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>14.25</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -682,16 +682,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>14.25</v>
+        <v>12</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N6" t="n">
-        <v>19.25</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -699,7 +699,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -708,34 +708,34 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="G7" t="n">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="H7" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>39</v>
+      </c>
+      <c r="L7" t="n">
         <v>9.5</v>
       </c>
-      <c r="I7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>27</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5.25</v>
-      </c>
       <c r="M7" t="n">
-        <v>13.1</v>
+        <v>10</v>
       </c>
       <c r="N7" t="n">
-        <v>50.35</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -743,43 +743,43 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H8" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>9.200000000000001</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>9.25</v>
       </c>
       <c r="M8" t="n">
-        <v>18.7</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>18.7</v>
+        <v>37.25</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -790,10 +790,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -802,28 +802,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="M9" t="n">
-        <v>10</v>
+        <v>18.9</v>
       </c>
       <c r="N9" t="n">
-        <v>19</v>
+        <v>46.9</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -843,31 +843,31 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
         <v>9.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>9.4</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>13.5</v>
       </c>
       <c r="L10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M10" t="n">
-        <v>10.5</v>
+        <v>18.9</v>
       </c>
       <c r="N10" t="n">
-        <v>34</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -890,10 +890,10 @@
         <v>4.75</v>
       </c>
       <c r="G11" t="n">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>19</v>
+        <v>23.5</v>
       </c>
     </row>
   </sheetData>

--- a/Brain_test/write.xlsx
+++ b/Brain_test/write.xlsx
@@ -59,34 +59,34 @@
     <t>总分</t>
   </si>
   <si>
-    <t>95ac399f-11ce-4e53-96d6-a94c8115be9f</t>
-  </si>
-  <si>
-    <t>9aaa30a5-f267-4297-bac1-bdc1307d7f0f</t>
-  </si>
-  <si>
-    <t>59f019b3-bfb1-493f-a33b-28832781f6c1</t>
-  </si>
-  <si>
-    <t>e2fc231a-e05b-42cd-926e-4ccc51b802ad</t>
-  </si>
-  <si>
-    <t>2b1dcfb8-30ad-4c7f-8479-a778135bbd35</t>
-  </si>
-  <si>
-    <t>a7385d7e-a6cd-406c-895a-738967d29ac2</t>
-  </si>
-  <si>
-    <t>e838eb8c-3693-421f-b4df-78e0b73a00cf</t>
-  </si>
-  <si>
-    <t>63f6c285-bf1d-46d6-baae-6a82ab651864</t>
-  </si>
-  <si>
-    <t>61c1aa7e-a4b6-4637-8fa2-282f661d6c73</t>
-  </si>
-  <si>
-    <t>5a0f56c0-c24f-4fb0-9df0-553dc026ab18</t>
+    <t>420c085f-a2af-4086-9a07-eb02111c9c31</t>
+  </si>
+  <si>
+    <t>64fd3672-556d-40d6-86d2-977b481cce9a</t>
+  </si>
+  <si>
+    <t>c8464961-d434-472a-8dac-b8e9fce96c47</t>
+  </si>
+  <si>
+    <t>ca4aa6eb-4a77-46ba-a6da-2f9a12db0718</t>
+  </si>
+  <si>
+    <t>ec614bef-f13f-4f6e-af80-4721b4cbdfd0</t>
+  </si>
+  <si>
+    <t>a5879a17-7134-481e-b9b3-fd18f3e80c58</t>
+  </si>
+  <si>
+    <t>8108ae51-2200-4fd6-b74f-e6bfa7904461</t>
+  </si>
+  <si>
+    <t>1ef93c62-6286-42ef-b1e7-72c58273308b</t>
+  </si>
+  <si>
+    <t>a935c981-ba58-451b-809c-6e3641ee8750</t>
+  </si>
+  <si>
+    <t>ed7043fb-8f89-4632-ab1f-5133e9cc395e</t>
   </si>
 </sst>
 </file>
@@ -485,16 +485,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>10</v>
@@ -506,16 +506,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>10</v>
       </c>
       <c r="N2" t="n">
-        <v>53.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -523,25 +523,25 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>24.75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -573,37 +573,37 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="L4" t="n">
-        <v>7.75</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N4" t="n">
-        <v>30.25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -611,43 +611,43 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F5" t="n">
         <v>4.75</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="L5" t="n">
-        <v>7.75</v>
+        <v>6.75</v>
       </c>
       <c r="M5" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="N5" t="n">
-        <v>30.25</v>
+        <v>47.25</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -655,43 +655,43 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>12</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="G6" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>12</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="M6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N6" t="n">
-        <v>24.75</v>
+        <v>34.75</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -705,16 +705,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>10</v>
@@ -726,16 +726,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>10</v>
       </c>
       <c r="N7" t="n">
-        <v>58.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -746,7 +746,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>15</v>
@@ -755,11 +755,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>4.75</v>
       </c>
-      <c r="G8" t="n">
-        <v>4.5</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
         <v>15</v>
       </c>
       <c r="L8" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>37.25</v>
+        <v>29.75</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -787,43 +787,43 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>9.4</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
         <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="L9" t="n">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>18.9</v>
+        <v>5.5</v>
       </c>
       <c r="N9" t="n">
-        <v>46.9</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -831,43 +831,43 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="L10" t="n">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="M10" t="n">
-        <v>18.9</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>39.4</v>
+        <v>27.75</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -875,10 +875,10 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>15</v>
@@ -887,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
         <v>15</v>
       </c>
       <c r="L11" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>23.5</v>
+        <v>32.5</v>
       </c>
     </row>
   </sheetData>

--- a/Brain_test/write.xlsx
+++ b/Brain_test/write.xlsx
@@ -59,34 +59,34 @@
     <t>总分</t>
   </si>
   <si>
-    <t>420c085f-a2af-4086-9a07-eb02111c9c31</t>
-  </si>
-  <si>
-    <t>64fd3672-556d-40d6-86d2-977b481cce9a</t>
-  </si>
-  <si>
-    <t>c8464961-d434-472a-8dac-b8e9fce96c47</t>
-  </si>
-  <si>
-    <t>ca4aa6eb-4a77-46ba-a6da-2f9a12db0718</t>
-  </si>
-  <si>
-    <t>ec614bef-f13f-4f6e-af80-4721b4cbdfd0</t>
-  </si>
-  <si>
-    <t>a5879a17-7134-481e-b9b3-fd18f3e80c58</t>
-  </si>
-  <si>
-    <t>8108ae51-2200-4fd6-b74f-e6bfa7904461</t>
-  </si>
-  <si>
-    <t>1ef93c62-6286-42ef-b1e7-72c58273308b</t>
-  </si>
-  <si>
-    <t>a935c981-ba58-451b-809c-6e3641ee8750</t>
-  </si>
-  <si>
-    <t>ed7043fb-8f89-4632-ab1f-5133e9cc395e</t>
+    <t>e7b5010d-9263-4f04-8b72-4cb18f3371f4</t>
+  </si>
+  <si>
+    <t>b9239ed3-256a-48f7-a152-68ef4e8ce19d</t>
+  </si>
+  <si>
+    <t>1b97d7d2-0720-49c2-8e37-913772b65b75</t>
+  </si>
+  <si>
+    <t>62314391-9f17-4b41-a290-30640889cc9b</t>
+  </si>
+  <si>
+    <t>5a2f2bef-96c7-478c-a092-ab2d2dbf219f</t>
+  </si>
+  <si>
+    <t>9094b3b4-9d45-4510-aa6c-831fbf1030b6</t>
+  </si>
+  <si>
+    <t>dd2870e0-3662-45e5-9971-d2a5c5f3334a</t>
+  </si>
+  <si>
+    <t>9975908c-452c-48be-8873-53554029f24b</t>
+  </si>
+  <si>
+    <t>cc1478c1-f17c-467e-95b1-ef3e605bca12</t>
+  </si>
+  <si>
+    <t>aae338fa-fb20-469f-bfeb-138544e6d4c9</t>
   </si>
 </sst>
 </file>
@@ -479,43 +479,43 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>10</v>
+        <v>5.9</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -523,43 +523,43 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="N3" t="n">
-        <v>23</v>
+        <v>27.15</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -567,16 +567,16 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -585,25 +585,25 @@
         <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>12</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>30</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -614,40 +614,40 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="L5" t="n">
-        <v>6.75</v>
+        <v>8.5</v>
       </c>
       <c r="M5" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>47.25</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -661,37 +661,37 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L6" t="n">
-        <v>5.75</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="n">
-        <v>12</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N6" t="n">
-        <v>34.75</v>
+        <v>31.55</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -705,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>12.75</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -726,16 +726,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>36.75</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>50.25</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -746,40 +746,40 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>12.75</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>15</v>
+        <v>36.75</v>
       </c>
       <c r="L8" t="n">
-        <v>9.75</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="N8" t="n">
-        <v>29.75</v>
+        <v>61.25</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -787,16 +787,16 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -805,25 +805,25 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>34.5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -843,10 +843,10 @@
         <v>18</v>
       </c>
       <c r="F10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G10" t="n">
         <v>4.75</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>18</v>
       </c>
       <c r="L10" t="n">
-        <v>4.75</v>
+        <v>9.25</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>27.75</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -878,7 +878,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>15</v>
@@ -887,31 +887,31 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>15</v>
       </c>
       <c r="L11" t="n">
-        <v>6.5</v>
+        <v>14.75</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N11" t="n">
-        <v>32.5</v>
+        <v>44.75</v>
       </c>
     </row>
   </sheetData>

--- a/Brain_test/write.xlsx
+++ b/Brain_test/write.xlsx
@@ -59,34 +59,34 @@
     <t>总分</t>
   </si>
   <si>
-    <t>e7b5010d-9263-4f04-8b72-4cb18f3371f4</t>
-  </si>
-  <si>
-    <t>b9239ed3-256a-48f7-a152-68ef4e8ce19d</t>
-  </si>
-  <si>
-    <t>1b97d7d2-0720-49c2-8e37-913772b65b75</t>
-  </si>
-  <si>
-    <t>62314391-9f17-4b41-a290-30640889cc9b</t>
-  </si>
-  <si>
-    <t>5a2f2bef-96c7-478c-a092-ab2d2dbf219f</t>
-  </si>
-  <si>
-    <t>9094b3b4-9d45-4510-aa6c-831fbf1030b6</t>
-  </si>
-  <si>
-    <t>dd2870e0-3662-45e5-9971-d2a5c5f3334a</t>
-  </si>
-  <si>
-    <t>9975908c-452c-48be-8873-53554029f24b</t>
-  </si>
-  <si>
-    <t>cc1478c1-f17c-467e-95b1-ef3e605bca12</t>
-  </si>
-  <si>
-    <t>aae338fa-fb20-469f-bfeb-138544e6d4c9</t>
+    <t>c5a97c04-9085-4b39-856a-28903492a916</t>
+  </si>
+  <si>
+    <t>17b00e26-dc32-4e4a-af98-f2826f232cd6</t>
+  </si>
+  <si>
+    <t>6a6bec2e-07da-4e84-965a-8716207e46ff</t>
+  </si>
+  <si>
+    <t>cf3a937b-3b92-4209-853f-2b47cdcc42a0</t>
+  </si>
+  <si>
+    <t>df6ebd2e-5333-4c76-8fdd-745bac5c18c6</t>
+  </si>
+  <si>
+    <t>6108f101-acd5-41ff-ba3f-46e04b306701</t>
+  </si>
+  <si>
+    <t>f8e7de0c-eddd-4523-b00f-44bd9b89c7a9</t>
+  </si>
+  <si>
+    <t>c4410790-5b84-4f78-af3e-299b252d065a</t>
+  </si>
+  <si>
+    <t>abe9bc5a-369d-42bc-aeb6-c676081ae980</t>
+  </si>
+  <si>
+    <t>1ddcc396-ce99-4d61-b6df-9bf2aeacbe35</t>
   </si>
 </sst>
 </file>
@@ -479,43 +479,43 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M2" t="n">
-        <v>5.9</v>
+        <v>10</v>
       </c>
       <c r="N2" t="n">
-        <v>38.9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -532,34 +532,34 @@
         <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="L3" t="n">
-        <v>6.25</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>27.15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -573,37 +573,37 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>14.25</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>15</v>
+        <v>14.25</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>12.25</v>
       </c>
       <c r="M4" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>33.3</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -620,34 +620,34 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>8.5</v>
+        <v>6.75</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="N5" t="n">
-        <v>31.5</v>
+        <v>24.35</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -655,13 +655,13 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -673,25 +673,25 @@
         <v>3.25</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="I6" t="n">
-        <v>8.300000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>6.25</v>
       </c>
       <c r="M6" t="n">
-        <v>8.300000000000001</v>
+        <v>12.6</v>
       </c>
       <c r="N6" t="n">
-        <v>31.55</v>
+        <v>18.85</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -699,43 +699,43 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>12.75</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>36.75</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>8.75</v>
       </c>
       <c r="M7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="N7" t="n">
-        <v>50.25</v>
+        <v>27.75</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -746,40 +746,40 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>12.75</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H8" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>36.75</v>
+        <v>45</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M8" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>61.25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -787,43 +787,43 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>14.25</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="L9" t="n">
         <v>10</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>15</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
       <c r="M9" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>34</v>
+        <v>24.25</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -840,34 +840,34 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L10" t="n">
-        <v>9.25</v>
+        <v>3.25</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="N10" t="n">
-        <v>32.25</v>
+        <v>41.35</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -881,37 +881,37 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G11" t="n">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L11" t="n">
-        <v>14.75</v>
+        <v>7.75</v>
       </c>
       <c r="M11" t="n">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="N11" t="n">
-        <v>44.75</v>
+        <v>45.85</v>
       </c>
     </row>
   </sheetData>

--- a/Brain_test/write.xlsx
+++ b/Brain_test/write.xlsx
@@ -59,34 +59,34 @@
     <t>总分</t>
   </si>
   <si>
-    <t>c5a97c04-9085-4b39-856a-28903492a916</t>
-  </si>
-  <si>
-    <t>17b00e26-dc32-4e4a-af98-f2826f232cd6</t>
-  </si>
-  <si>
-    <t>6a6bec2e-07da-4e84-965a-8716207e46ff</t>
-  </si>
-  <si>
-    <t>cf3a937b-3b92-4209-853f-2b47cdcc42a0</t>
-  </si>
-  <si>
-    <t>df6ebd2e-5333-4c76-8fdd-745bac5c18c6</t>
-  </si>
-  <si>
-    <t>6108f101-acd5-41ff-ba3f-46e04b306701</t>
-  </si>
-  <si>
-    <t>f8e7de0c-eddd-4523-b00f-44bd9b89c7a9</t>
-  </si>
-  <si>
-    <t>c4410790-5b84-4f78-af3e-299b252d065a</t>
-  </si>
-  <si>
-    <t>abe9bc5a-369d-42bc-aeb6-c676081ae980</t>
-  </si>
-  <si>
-    <t>1ddcc396-ce99-4d61-b6df-9bf2aeacbe35</t>
+    <t>9c7c87bf-a0fe-4130-bfad-04dc54100059</t>
+  </si>
+  <si>
+    <t>dc15b80e-e2e1-4b12-bcba-7c670d9d7efd</t>
+  </si>
+  <si>
+    <t>6c80c2bf-7b96-4c4c-895d-b0cae5e822ed</t>
+  </si>
+  <si>
+    <t>e3251571-58f2-444a-910c-fa9c2fcaa2dc</t>
+  </si>
+  <si>
+    <t>076709a5-6502-438a-b032-535fc357e3cb</t>
+  </si>
+  <si>
+    <t>a490c2e9-d485-4a5e-adbd-5d565e1dd101</t>
+  </si>
+  <si>
+    <t>8f644280-19e8-4dff-aa82-3a300679abb3</t>
+  </si>
+  <si>
+    <t>12e94c15-c719-438f-8470-048ca831fb89</t>
+  </si>
+  <si>
+    <t>e00705db-4c7d-4ee8-aa2a-c13a3aa04b56</t>
+  </si>
+  <si>
+    <t>03c54b79-dc21-4561-96c6-7ba59920bb0b</t>
   </si>
 </sst>
 </file>
@@ -479,22 +479,22 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
         <v>10</v>
@@ -503,19 +503,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L2" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M2" t="n">
         <v>10</v>
       </c>
       <c r="N2" t="n">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -523,25 +523,25 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>45</v>
+        <v>13.5</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N3" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -567,25 +567,25 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>14.25</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
         <v>3.75</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -594,16 +594,16 @@
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>14.25</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.25</v>
+        <v>12.75</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N4" t="n">
-        <v>31.5</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -626,28 +626,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="L5" t="n">
-        <v>6.75</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>12.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N5" t="n">
-        <v>24.35</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -655,43 +655,43 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L6" t="n">
-        <v>6.25</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>12.6</v>
+        <v>10</v>
       </c>
       <c r="N6" t="n">
-        <v>18.85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -699,43 +699,43 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5</v>
-      </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="L7" t="n">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="M7" t="n">
         <v>10</v>
       </c>
       <c r="N7" t="n">
-        <v>27.75</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -746,40 +746,40 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>45</v>
+        <v>13.5</v>
       </c>
       <c r="L8" t="n">
-        <v>14</v>
+        <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N8" t="n">
-        <v>64</v>
+        <v>40.8</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -787,43 +787,43 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>14.25</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>14.25</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N9" t="n">
-        <v>24.25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -831,7 +831,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -840,34 +840,34 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I10" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="N10" t="n">
-        <v>41.35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -881,37 +881,37 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E11" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
         <v>4.5</v>
       </c>
-      <c r="G11" t="n">
-        <v>3.25</v>
-      </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I11" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
-        <v>7.75</v>
+        <v>11.5</v>
       </c>
       <c r="M11" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="N11" t="n">
-        <v>45.85</v>
+        <v>40.5</v>
       </c>
     </row>
   </sheetData>

--- a/Brain_test/write.xlsx
+++ b/Brain_test/write.xlsx
@@ -59,34 +59,34 @@
     <t>总分</t>
   </si>
   <si>
-    <t>9c7c87bf-a0fe-4130-bfad-04dc54100059</t>
-  </si>
-  <si>
-    <t>dc15b80e-e2e1-4b12-bcba-7c670d9d7efd</t>
-  </si>
-  <si>
-    <t>6c80c2bf-7b96-4c4c-895d-b0cae5e822ed</t>
-  </si>
-  <si>
-    <t>e3251571-58f2-444a-910c-fa9c2fcaa2dc</t>
-  </si>
-  <si>
-    <t>076709a5-6502-438a-b032-535fc357e3cb</t>
-  </si>
-  <si>
-    <t>a490c2e9-d485-4a5e-adbd-5d565e1dd101</t>
-  </si>
-  <si>
-    <t>8f644280-19e8-4dff-aa82-3a300679abb3</t>
-  </si>
-  <si>
-    <t>12e94c15-c719-438f-8470-048ca831fb89</t>
-  </si>
-  <si>
-    <t>e00705db-4c7d-4ee8-aa2a-c13a3aa04b56</t>
-  </si>
-  <si>
-    <t>03c54b79-dc21-4561-96c6-7ba59920bb0b</t>
+    <t>c3c24d31-354a-4c73-8bd4-3b2de6e4b619</t>
+  </si>
+  <si>
+    <t>8e5a3e5e-8472-4fdb-871f-4942f45be572</t>
+  </si>
+  <si>
+    <t>e23332ba-5b2f-4642-81b9-b8c3de0c0770</t>
+  </si>
+  <si>
+    <t>ad75079b-92ae-49ca-8d82-93aefbbb86c0</t>
+  </si>
+  <si>
+    <t>4b638ee1-84e4-4759-be7d-b7b9a572884e</t>
+  </si>
+  <si>
+    <t>bea2c777-e456-4e69-a050-2096bd468505</t>
+  </si>
+  <si>
+    <t>d57bf0fc-3d4b-4fbf-8c9e-51a4a1a8779e</t>
+  </si>
+  <si>
+    <t>f94e7991-a8ba-4068-b781-fd5a5f93bdec</t>
+  </si>
+  <si>
+    <t>a6226905-26f5-4b8d-84b3-461d102774cb</t>
+  </si>
+  <si>
+    <t>74cca94a-2923-47cf-92e8-40ca2819458b</t>
   </si>
 </sst>
 </file>
@@ -479,43 +479,43 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>10</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>45</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8</v>
-      </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>10</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -526,10 +526,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -538,28 +538,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>4</v>
       </c>
-      <c r="K3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>8.5</v>
-      </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N3" t="n">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -579,31 +579,31 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>4</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12.75</v>
-      </c>
       <c r="M4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="N4" t="n">
-        <v>21.75</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -626,28 +626,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>9.25</v>
       </c>
       <c r="M5" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>32.3</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -655,25 +655,25 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -682,16 +682,16 @@
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="N6" t="n">
-        <v>66</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -699,43 +699,43 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>13.5</v>
+        <v>27</v>
       </c>
       <c r="L7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
-        <v>10</v>
+        <v>12.2</v>
       </c>
       <c r="N7" t="n">
-        <v>31</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -743,13 +743,13 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -761,25 +761,25 @@
         <v>3.5</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I8" t="n">
-        <v>9.800000000000001</v>
+        <v>7.100000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="M8" t="n">
-        <v>9.800000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="N8" t="n">
-        <v>40.8</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -796,34 +796,34 @@
         <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="M9" t="n">
-        <v>9</v>
+        <v>12.2</v>
       </c>
       <c r="N9" t="n">
-        <v>46</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -831,7 +831,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -843,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="H10" t="n">
         <v>9</v>
@@ -855,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>9.75</v>
       </c>
       <c r="M10" t="n">
         <v>9</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -875,13 +875,13 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>9</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>7.100000000000001</v>
       </c>
       <c r="J11" t="n">
         <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>11.5</v>
       </c>
       <c r="M11" t="n">
-        <v>9</v>
+        <v>16.1</v>
       </c>
       <c r="N11" t="n">
-        <v>40.5</v>
+        <v>27.6</v>
       </c>
     </row>
   </sheetData>
